--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3117,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3152,28 +3164,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3210,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3452,10 +3464,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3499,28 +3511,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3545,28 +3557,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3724,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3759,28 +3771,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3817,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3943,10 +3955,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3990,28 +4002,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4036,28 +4048,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4232,10 +4244,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4279,28 +4291,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4325,28 +4337,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4926,10 +4938,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4973,28 +4985,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5019,28 +5031,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5157,10 +5169,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5204,28 +5216,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5250,28 +5262,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5359,10 +5371,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5406,28 +5418,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5452,28 +5464,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5561,10 +5573,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5608,28 +5620,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5654,28 +5666,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6035,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6070,28 +6082,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6128,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6225,10 +6237,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6272,28 +6284,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6318,28 +6330,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6456,10 +6468,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6503,28 +6515,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6549,28 +6561,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6687,10 +6699,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6734,28 +6746,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6780,28 +6792,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6918,10 +6930,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6965,28 +6977,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7011,28 +7023,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6240" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -749,10 +797,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="J21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -796,28 +844,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="4">
+      <c r="A23" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="4">
+      <c r="C23" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -842,28 +890,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="4">
+      <c r="D25" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="4">
+      <c r="I25" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -951,10 +999,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -998,28 +1046,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="4">
+      <c r="A30" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="4">
+      <c r="C30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1044,28 +1092,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="4">
+      <c r="I32" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1211,10 +1259,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="J37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1258,28 +1306,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="4">
+      <c r="A39" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="4">
+      <c r="C39" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="4">
+      <c r="G39" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="4">
+      <c r="H39" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1304,28 +1352,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="4">
+      <c r="C41" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="4">
+      <c r="D41" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="4">
+      <c r="I41" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1442,10 +1490,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1489,28 +1537,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="4">
+      <c r="A47" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="4">
+      <c r="C47" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1535,28 +1583,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="4">
+      <c r="C49" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="4">
+      <c r="D49" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="4">
+      <c r="I49" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1731,10 +1779,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="J55" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1778,28 +1826,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="4">
+      <c r="A57" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="4">
+      <c r="C57" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1824,28 +1872,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="D59" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="4">
+      <c r="I59" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1991,10 +2039,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2038,28 +2086,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2084,28 +2132,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2222,10 +2270,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2269,28 +2317,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="4">
+      <c r="C74" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2315,28 +2363,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="4">
+      <c r="I76" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2453,10 +2501,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="J80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2500,28 +2548,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="C82" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2546,28 +2594,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="4">
+      <c r="I84" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2655,10 +2703,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2702,28 +2750,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2748,28 +2796,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2857,10 +2905,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2904,28 +2952,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2950,28 +2998,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3117,10 +3165,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="4" t="s">
+      <c r="J103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3164,28 +3212,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="4">
+      <c r="C105" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3210,28 +3258,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="4">
+      <c r="I107" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3464,10 +3512,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3511,28 +3559,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3557,28 +3605,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3724,10 +3772,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3771,28 +3819,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3817,28 +3865,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3955,10 +4003,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4002,28 +4050,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4048,28 +4096,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4244,10 +4292,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="4" t="s">
+      <c r="J142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4291,28 +4339,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="4">
+      <c r="C144" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4337,28 +4385,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4678,10 +4726,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J157" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4725,28 +4773,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="4">
+      <c r="C159" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4771,28 +4819,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4938,10 +4986,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4985,28 +5033,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5031,28 +5079,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5169,10 +5217,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5216,28 +5264,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5262,28 +5310,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5371,10 +5419,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="4" t="s">
+      <c r="J181" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5418,28 +5466,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="4">
+      <c r="A183" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="4">
+      <c r="C183" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5464,28 +5512,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="4">
+      <c r="I185" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5573,10 +5621,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5620,28 +5668,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5666,28 +5714,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5833,10 +5881,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5880,28 +5928,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5926,28 +5974,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6035,10 +6083,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6082,28 +6130,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6128,28 +6176,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6237,10 +6285,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6284,28 +6332,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="4">
+      <c r="C213" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6330,28 +6378,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="4">
+      <c r="I215" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6468,10 +6516,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6515,28 +6563,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6561,28 +6609,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6699,10 +6747,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="4" t="s">
+      <c r="J227" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6746,28 +6794,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="4">
+      <c r="A229" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="4">
+      <c r="C229" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6792,28 +6840,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="4">
+      <c r="C231" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="4">
+      <c r="D231" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="4">
+      <c r="I231" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6930,10 +6978,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6977,28 +7025,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7023,28 +7071,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7103,10 +7151,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6240" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="12">
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -797,10 +815,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -844,28 +862,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="12">
+      <c r="A23" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="12">
+      <c r="C23" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -890,28 +908,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="12">
+      <c r="I25" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -999,10 +1017,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -1046,28 +1064,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="12">
+      <c r="C30" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1092,28 +1110,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1259,10 +1277,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="12" t="s">
+      <c r="J37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1306,28 +1324,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="12">
+      <c r="A39" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="12">
+      <c r="B39" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="12">
+      <c r="C39" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="12">
+      <c r="F39" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="12">
+      <c r="G39" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="12">
+      <c r="H39" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1352,28 +1370,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="12">
+      <c r="C41" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="12">
+      <c r="D41" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="12">
+      <c r="I41" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1490,10 +1508,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1537,28 +1555,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="12">
+      <c r="A47" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="12">
+      <c r="C47" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1583,28 +1601,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="12">
+      <c r="C49" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="12">
+      <c r="D49" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="12">
+      <c r="I49" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1779,10 +1797,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1826,28 +1844,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="12">
+      <c r="A57" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="12">
+      <c r="C57" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1872,28 +1890,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="12">
+      <c r="C59" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="12">
+      <c r="D59" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="12">
+      <c r="I59" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2039,10 +2057,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2086,28 +2104,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2132,28 +2150,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2270,10 +2288,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="12" t="s">
+      <c r="J72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2317,28 +2335,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="12">
+      <c r="A74" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="12">
+      <c r="C74" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2363,28 +2381,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="12">
+      <c r="I76" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2501,10 +2519,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="12" t="s">
+      <c r="J80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2548,28 +2566,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="12">
+      <c r="A82" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="12">
+      <c r="C82" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2594,28 +2612,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="12">
+      <c r="I84" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2721,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2750,28 +2768,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2796,28 +2814,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2905,10 +2923,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2952,28 +2970,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2998,28 +3016,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3183,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="12" t="s">
+      <c r="J103" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3212,28 +3230,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="12">
+      <c r="A105" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="12">
+      <c r="C105" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3276,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="12">
+      <c r="I107" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3530,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3559,28 +3577,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3623,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3772,10 +3790,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3819,28 +3837,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3865,28 +3883,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4021,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4050,28 +4068,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4114,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4292,10 +4310,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="12" t="s">
+      <c r="J142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4339,28 +4357,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="12">
+      <c r="C144" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4385,28 +4403,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4726,10 +4744,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="12" t="s">
+      <c r="J157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4773,28 +4791,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="12">
+      <c r="C159" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4819,28 +4837,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4986,10 +5004,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5033,28 +5051,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5079,28 +5097,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5217,10 +5235,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5264,28 +5282,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5310,28 +5328,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5419,10 +5437,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="12" t="s">
+      <c r="J181" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5466,28 +5484,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="12">
+      <c r="A183" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="12">
+      <c r="C183" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5512,28 +5530,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="12">
+      <c r="D185" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="12">
+      <c r="I185" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5621,10 +5639,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5668,28 +5686,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5714,28 +5732,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5881,10 +5899,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5928,28 +5946,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5974,28 +5992,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6101,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6130,28 +6148,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6176,28 +6194,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6285,10 +6303,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="12" t="s">
+      <c r="J211" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6332,28 +6350,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="12">
+      <c r="A213" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="12">
+      <c r="C213" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6378,28 +6396,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="12">
+      <c r="D215" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="12">
+      <c r="I215" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6516,10 +6534,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6563,28 +6581,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6609,28 +6627,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6747,10 +6765,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="12" t="s">
+      <c r="J227" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6794,28 +6812,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="12">
+      <c r="A229" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="12">
+      <c r="C229" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6840,28 +6858,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="12">
+      <c r="C231" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="12">
+      <c r="D231" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="12">
+      <c r="I231" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6978,10 +6996,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7025,28 +7043,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7071,28 +7089,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7151,10 +7169,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
